--- a/Term Paper/data/data_output/unemploy_regressional_output.xlsx
+++ b/Term Paper/data/data_output/unemploy_regressional_output.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukea\Documents\GitHub\BC_Project\Term Paper\data\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D234F-DCC5-4806-8A50-502B687DCF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443628AC-F71F-4AEF-A59C-E3575F94472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="22060" windowHeight="15460" xr2:uid="{ED045467-7A17-4399-8A34-179A2F280E7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{ED045467-7A17-4399-8A34-179A2F280E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="for presentation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="unemploy_latex" localSheetId="0">Sheet1!$A$1:$F$22</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t xml:space="preserve">                                                                                                </t>
   </si>
@@ -597,6 +598,295 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C3471A-E565-4FD1-8351-C373A1175925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="552450"/>
+          <a:ext cx="711200" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFB7523-C0BD-48FE-8A13-C40F91A01F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="920750"/>
+          <a:ext cx="1333500" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BD22A3-472B-4249-98DB-010CFCACBF56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1289050"/>
+          <a:ext cx="1758950" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83A46A9-E9FE-41F9-A97F-18A26FCADB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="641350" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="unemploy_latex" connectionId="1" xr16:uid="{4F702907-02D4-4CB6-9EC0-D3BF9059B66C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -900,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DDEF28-27F5-4770-97CF-C8A831C74228}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
@@ -1219,4 +1509,290 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0E2FE8-A33B-4C3D-80E0-72E050A7964D}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6">
+        <v>-0.12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-0.15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="8">
+        <v>-0.51</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-0.50600000000000001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>-0.48</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2548</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2548</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2548</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2548</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>